--- a/xlsx/增值税_intext.xlsx
+++ b/xlsx/增值税_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
   <si>
     <t>增值税</t>
   </si>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E7%A8%85</t>
   </si>
   <si>
-    <t>消費稅</t>
+    <t>消费税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AF%E9%80%80%E7%A8%85</t>
   </si>
   <si>
-    <t>累退稅</t>
+    <t>累退税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E7%A8%85</t>
   </si>
   <si>
-    <t>間接稅</t>
+    <t>间接税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E5%8F%8A%E6%9C%8D%E5%8B%99%E7%A8%85</t>
   </si>
   <si>
-    <t>商品及服務稅</t>
+    <t>商品及服务税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>生產</t>
+    <t>生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A</t>
@@ -281,25 +281,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E7%A8%AE</t>
   </si>
   <si>
-    <t>稅種</t>
+    <t>税种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%A4%8D%E6%A5%AD</t>
   </si>
   <si>
-    <t>種植業</t>
+    <t>种植业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A1%E7%A4%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>採礦業</t>
+    <t>采矿业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>建築業</t>
+    <t>建筑业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%9D%90%E6%96%99</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
   </si>
   <si>
-    <t>批發</t>
+    <t>批发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>法國政府</t>
+    <t>法国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E7%A8%85</t>
   </si>
   <si>
-    <t>銷售稅</t>
+    <t>销售税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>供應曲線</t>
+    <t>供应曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F</t>
   </si>
   <si>
-    <t>糧食</t>
+    <t>粮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E6%87%B8%E6%AE%8A</t>
   </si>
   <si>
-    <t>貧富懸殊</t>
+    <t>贫富悬殊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>利得稅</t>
+    <t>利得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E7%85%99</t>
   </si>
   <si>
-    <t>香煙</t>
+    <t>香烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B2%B9</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%8F%A3</t>
@@ -509,9 +509,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E7%A7%8D</t>
   </si>
   <si>
-    <t>税种</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC%E7%A8%8E%E4%B8%80%E8%88%AC%E7%BA%B3%E7%A8%8E%E4%BA%BA</t>
   </si>
   <si>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F%E6%88%90%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐盟成員國</t>
+    <t>欧盟成员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -557,43 +554,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加那利群島</t>
+    <t>加那利群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94</t>
   </si>
   <si>
-    <t>休達</t>
+    <t>休达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>梅利利亞</t>
+    <t>梅利利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
+    <t>直布罗陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>奧蘭群島</t>
+    <t>奥兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -605,25 +602,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%B4%E6%8E%A5%E7%A8%8E</t>
   </si>
   <si>
-    <t>间接税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>柯林頓</t>
+    <t>柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -683,25 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
   </si>
   <si>
-    <t>芬兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -713,19 +701,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -743,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -767,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -785,13 +773,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -827,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -857,9 +842,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E7%A8%8E</t>
   </si>
   <si>
-    <t>消费税</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
@@ -881,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -917,31 +899,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -953,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -965,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -977,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -995,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
@@ -1019,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1037,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
@@ -1061,37 +1043,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>負資產</t>
+    <t>负资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E6%A8%93</t>
   </si>
   <si>
-    <t>炒樓</t>
+    <t>炒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1103,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3852,7 +3834,7 @@
         <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3878,10 +3860,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3907,10 +3889,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3936,10 +3918,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3965,10 +3947,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -3994,10 +3976,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>10</v>
@@ -4023,10 +4005,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4052,10 +4034,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4081,10 +4063,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4110,10 +4092,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4139,10 +4121,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4168,10 +4150,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4197,10 +4179,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4226,10 +4208,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4255,10 +4237,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4284,10 +4266,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4313,10 +4295,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4342,10 +4324,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4371,10 +4353,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4400,10 +4382,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4429,10 +4411,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4458,10 +4440,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4487,10 +4469,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4516,10 +4498,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4545,10 +4527,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4574,10 +4556,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4603,10 +4585,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4632,10 +4614,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4661,10 +4643,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4690,10 +4672,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4719,10 +4701,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4748,10 +4730,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4777,10 +4759,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4806,10 +4788,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4835,10 +4817,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4864,10 +4846,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4893,10 +4875,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4922,10 +4904,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4951,10 +4933,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4980,10 +4962,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5009,10 +4991,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5038,10 +5020,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5067,10 +5049,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5096,10 +5078,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5125,10 +5107,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5154,10 +5136,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5183,10 +5165,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5212,10 +5194,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5241,10 +5223,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5270,10 +5252,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5299,10 +5281,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5328,10 +5310,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5357,10 +5339,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5386,10 +5368,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5415,10 +5397,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5444,10 +5426,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5473,10 +5455,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5502,10 +5484,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5531,10 +5513,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5560,10 +5542,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5589,10 +5571,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5618,10 +5600,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5647,10 +5629,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5676,10 +5658,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5705,10 +5687,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5734,10 +5716,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5763,10 +5745,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5792,10 +5774,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5821,10 +5803,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5850,10 +5832,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5879,10 +5861,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5908,10 +5890,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5937,10 +5919,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -5966,10 +5948,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5995,10 +5977,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6024,10 +6006,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6053,10 +6035,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6082,10 +6064,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6111,10 +6093,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6140,10 +6122,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6169,10 +6151,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6198,10 +6180,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6227,10 +6209,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6256,10 +6238,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>8</v>
@@ -6285,10 +6267,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6314,10 +6296,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F168" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6343,10 +6325,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6372,10 +6354,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6401,10 +6383,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6459,10 +6441,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6488,10 +6470,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6517,10 +6499,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6546,10 +6528,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6575,10 +6557,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6604,10 +6586,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6633,10 +6615,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6662,10 +6644,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6691,10 +6673,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -6720,10 +6702,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6749,10 +6731,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -6778,10 +6760,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6807,10 +6789,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
